--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11325</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11325</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11325</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11325</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11325</v>
+        <v>11818</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11012</v>
+        <v>11818</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11012</v>
+        <v>11818</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11012</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>11012</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10844</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>10844</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10844</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10844</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>10844</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>10751</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10751</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>10502</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10502</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10502</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10502</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10502</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>10477</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>10477</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>10477</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10477</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>10378</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>10378</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>10378</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>10378</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>10139</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>10139</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>10139</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>10139</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>9687</v>
+        <v>9258</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>9662</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>9662</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>9652</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>9652</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>9652</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>9458</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>9458</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>9458</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>9458</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>9458</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>9458</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>9458</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>9458</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>9458</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>9433</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>9433</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>9433</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>9422</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>9397</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>9397</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>9397</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>9396</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>9396</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>9396</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>9319</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>9319</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>9319</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>9319</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>9294</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>9294</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>9294</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>9294</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>9294</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>9248</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>9248</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>8822</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>8822</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>8425</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>8315</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>8315</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>8315</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>8315</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>8056</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>8047</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>8047</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="121">

--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13500</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12198</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>12198</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>12198</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11818</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11818</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11818</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11542</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>11542</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>11542</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>11542</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>11542</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>11542</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>11542</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>11542</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>11537</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>10928</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10928</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10735</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10682</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10682</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>10682</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>9841</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>9841</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>9841</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>9841</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>9841</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>9258</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8445</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8445</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8445</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8445</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8445</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7785</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7785</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7785</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7785</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="45">

--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11370</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11370</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11370</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>10511</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>10511</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>10511</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10365</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>10365</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>10056</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10056</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>10056</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10056</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10056</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8370</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7945</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7657</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="43">

--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7534</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7295</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="32">

--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7293</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>7293</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>7293</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7293</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7293</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7293</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7293</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="86">

--- a/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_4/run_2.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8716</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>8348</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>8348</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7970</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7870</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7748</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7708</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="86">
